--- a/Data/aearep-817/candidatepackages.xlsx
+++ b/Data/aearep-817/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,15 +25,12 @@
     <t>reghdfe</t>
   </si>
   <si>
-    <t>egenmore</t>
+    <t>diff</t>
   </si>
   <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>shp2dta</t>
   </si>
   <si>
@@ -58,33 +55,33 @@
     <t>white</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
     <t>decomp</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>master.do</t>
@@ -183,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -191,13 +185,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -229,7 +223,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -241,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -253,7 +247,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -265,7 +259,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -277,7 +271,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -289,7 +283,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -301,10 +295,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>340</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0.11273209750652313</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -313,10 +307,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -325,10 +319,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>566</v>
+        <v>684</v>
       </c>
       <c r="C12">
-        <v>0.18766577541828156</v>
+        <v>0.22611570358276367</v>
       </c>
       <c r="D12"/>
     </row>
@@ -337,10 +331,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="C13">
-        <v>0.21684350073337555</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D13"/>
     </row>
@@ -349,10 +343,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C14">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D14"/>
     </row>
@@ -361,10 +355,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C15">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D15"/>
     </row>
@@ -373,10 +367,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C16">
-        <v>0.37566313147544861</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D16"/>
     </row>
@@ -385,10 +379,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1194</v>
+        <v>1306</v>
       </c>
       <c r="C17">
-        <v>0.39588859677314758</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D17"/>
     </row>
@@ -397,10 +391,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="C18">
-        <v>0.47181698679924011</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D18"/>
     </row>
@@ -409,10 +403,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1471</v>
+        <v>1446</v>
       </c>
       <c r="C19">
-        <v>0.48773208260536194</v>
+        <v>0.47801652550697327</v>
       </c>
       <c r="D19"/>
     </row>
@@ -421,10 +415,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1472</v>
+        <v>1497</v>
       </c>
       <c r="C20">
-        <v>0.48806366324424744</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D20"/>
     </row>
@@ -433,10 +427,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1660</v>
+        <v>2436</v>
       </c>
       <c r="C21">
-        <v>0.55039787292480469</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D21"/>
     </row>
@@ -445,24 +439,12 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2208</v>
+        <v>2485</v>
       </c>
       <c r="C22">
-        <v>0.73209547996520996</v>
+        <v>0.82148760557174683</v>
       </c>
       <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2424</v>
-      </c>
-      <c r="C23">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D23"/>
     </row>
   </sheetData>
 </worksheet>
@@ -470,23 +452,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -494,87 +476,79 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
